--- a/support/clinical_info/Stim info.xlsx
+++ b/support/clinical_info/Stim info.xlsx
@@ -13,6 +13,17 @@
     <sheet state="visible" name="HUP219" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="HUP220" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="CHOPCCEP_018" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="CHOPCCEP_001" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="CHOPCCEP_002" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="CHOPCCEP_003" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="CHOPCCEP_004" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="CHOPCCEP_005" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="CHOPCCEP_006" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="CHOPCCEP_007" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="HUP222" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="HUP223" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="HUP224" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="HUP225" sheetId="21" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="441">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -1133,13 +1144,223 @@
   </si>
   <si>
     <t>CHOPCCEP_018</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_001</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_002</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_003</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_004</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_005</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_006</t>
+  </si>
+  <si>
+    <t>CHOPCCEP_007</t>
+  </si>
+  <si>
+    <t>HUP222_CCEP</t>
+  </si>
+  <si>
+    <t>LE5, LC</t>
+  </si>
+  <si>
+    <t>left face tingling in left mesial temporal and basal temporal contacts</t>
+  </si>
+  <si>
+    <t>right S2</t>
+  </si>
+  <si>
+    <t>LI10</t>
+  </si>
+  <si>
+    <t>LK8</t>
+  </si>
+  <si>
+    <t>RG3</t>
+  </si>
+  <si>
+    <t>HUP223_CCEP</t>
+  </si>
+  <si>
+    <t>HUP224_CCEP</t>
+  </si>
+  <si>
+    <t>pain LI5, right hand jerk LX7</t>
+  </si>
+  <si>
+    <t>left fusiform</t>
+  </si>
+  <si>
+    <t>LQ</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>left posterior insula/left SII</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>left anterior precuneus</t>
+  </si>
+  <si>
+    <t>LQ1</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>left posterior precuneus</t>
+  </si>
+  <si>
+    <t>LQ2</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>left parietal lesion</t>
+  </si>
+  <si>
+    <t>LQ3</t>
+  </si>
+  <si>
+    <t>LQ4</t>
+  </si>
+  <si>
+    <t>LS1</t>
+  </si>
+  <si>
+    <t>LS2</t>
+  </si>
+  <si>
+    <t>right fusiform</t>
+  </si>
+  <si>
+    <t>LS3</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>LS4</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>right SII/posterior insula</t>
+  </si>
+  <si>
+    <t>LS5</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>right posteiror cingulate</t>
+  </si>
+  <si>
+    <t>LS6</t>
+  </si>
+  <si>
+    <t>right anterior precuneus</t>
+  </si>
+  <si>
+    <t>LX1</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>right posterior precuneus</t>
+  </si>
+  <si>
+    <t>LX2</t>
+  </si>
+  <si>
+    <t>LX3</t>
+  </si>
+  <si>
+    <t>LX4</t>
+  </si>
+  <si>
+    <t>LX7</t>
+  </si>
+  <si>
+    <t>LP1</t>
+  </si>
+  <si>
+    <t>LP2</t>
+  </si>
+  <si>
+    <t>LP9</t>
+  </si>
+  <si>
+    <t>LP10</t>
+  </si>
+  <si>
+    <t>LW1</t>
+  </si>
+  <si>
+    <t>LW2</t>
+  </si>
+  <si>
+    <t>LW3</t>
+  </si>
+  <si>
+    <t>LW4</t>
+  </si>
+  <si>
+    <t>LW5</t>
+  </si>
+  <si>
+    <t>LW6</t>
+  </si>
+  <si>
+    <t>LW7</t>
+  </si>
+  <si>
+    <t>LW8</t>
+  </si>
+  <si>
+    <t>LW9</t>
+  </si>
+  <si>
+    <t>LZ1</t>
+  </si>
+  <si>
+    <t>LZ2</t>
+  </si>
+  <si>
+    <t>LZ3</t>
+  </si>
+  <si>
+    <t>LZ4</t>
+  </si>
+  <si>
+    <t>LZ5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1153,14 +1374,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1169,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1179,14 +1411,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,7 +1439,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1654,6 +1933,1131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="F70" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="F71" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="F73" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="F74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -2087,6 +3491,539 @@
     <row r="50">
       <c r="F50" s="1" t="s">
         <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="F11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="F20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="F21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +4564,7 @@
       <c r="F3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2668,7 +4605,7 @@
       <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -4776,13 +6713,13 @@
       <c r="B2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>29781.9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>205</v>
       </c>
@@ -4801,27 +6738,27 @@
       <c r="K2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="2" t="s">
         <v>120</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="5"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>29003.57</v>
       </c>
       <c r="D3" s="2">
         <v>29304.0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>273</v>
       </c>
@@ -4831,25 +6768,25 @@
       <c r="H3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
       <c r="M3" s="2" t="s">
         <v>123</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>212</v>
       </c>
@@ -4859,24 +6796,24 @@
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="M4" s="2" t="s">
         <v>126</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
         <v>274</v>
       </c>
@@ -4886,1353 +6823,1353 @@
       <c r="H5" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="2" t="s">
         <v>128</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="2" t="s">
         <v>130</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
         <v>134</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="2" t="s">
         <v>136</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="2" t="s">
         <v>280</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
         <v>281</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
         <v>283</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
         <v>286</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="2" t="s">
         <v>288</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="2" t="s">
         <v>291</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="2" t="s">
         <v>293</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="2" t="s">
         <v>295</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
       <c r="F60" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
       <c r="F61" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6335,7 +8272,7 @@
       <c r="F2" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>275</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -6355,7 +8292,7 @@
       <c r="F3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>217</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -6372,7 +8309,7 @@
       <c r="F4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>282</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -6386,7 +8323,7 @@
       <c r="F5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>339</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -6902,7 +8839,7 @@
       <c r="M11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="1" t="s">
         <v>124</v>
       </c>
     </row>

--- a/support/clinical_info/Stim info.xlsx
+++ b/support/clinical_info/Stim info.xlsx
@@ -24,6 +24,8 @@
     <sheet state="visible" name="HUP223" sheetId="19" r:id="rId22"/>
     <sheet state="visible" name="HUP224" sheetId="20" r:id="rId23"/>
     <sheet state="visible" name="HUP225" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="HUP228" sheetId="22" r:id="rId25"/>
+    <sheet state="visible" name="HUP229" sheetId="23" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="451">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -81,6 +83,9 @@
     <t>visuallyBadChannels</t>
   </si>
   <si>
+    <t>Pulse width</t>
+  </si>
+  <si>
     <t>HUP211_CCEP</t>
   </si>
   <si>
@@ -1197,6 +1202,9 @@
     <t>pain LI5, right hand jerk LX7</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>left fusiform</t>
   </si>
   <si>
@@ -1354,13 +1362,37 @@
   </si>
   <si>
     <t>LZ5</t>
+  </si>
+  <si>
+    <t>HUP225_CCEP</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>LS3-4 felt scared similar to typical event</t>
+  </si>
+  <si>
+    <t>Main ieeg file, done as clinical protocol, unknown start time</t>
+  </si>
+  <si>
+    <t>back on meds</t>
+  </si>
+  <si>
+    <t>Was stim seizure similar electrographically to EMU seizures?</t>
+  </si>
+  <si>
+    <t>Was stim seizure typical</t>
+  </si>
+  <si>
+    <t>Yes? LA not involved at onset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1379,7 +1411,6 @@
       <color rgb="FF222222"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
-    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -1401,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1418,9 +1449,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1484,6 +1512,14 @@
 </file>
 
 <file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1768,13 +1804,15 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -1787,66 +1825,69 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1919,13 +1960,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C2" s="1">
         <v>2503.24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2039,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2112,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2185,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2258,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2331,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2404,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2477,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2503,481 +2544,486 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>378</v>
+      <c r="A2" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3044,13 +3090,18 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>385</v>
+      <c r="A2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
   </sheetData>
@@ -3118,21 +3169,24 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -3145,25 +3199,25 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R2" s="1">
         <v>245545.0</v>
@@ -3171,10 +3225,13 @@
       <c r="S2" s="1">
         <v>245725.0</v>
       </c>
+      <c r="U2" s="1">
+        <v>300.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>659035.32</v>
@@ -3183,314 +3240,314 @@
         <v>666139.59</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3557,397 +3614,405 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>386</v>
+      <c r="A2" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4014,16 +4079,218 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="B2" s="1">
         <v>3.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="G8" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -4090,13 +4357,15 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -4109,318 +4378,321 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4488,21 +4760,24 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -4515,37 +4790,37 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R2" s="1">
         <v>14987.0</v>
@@ -4554,39 +4829,42 @@
         <v>15034.11</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="U2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="R3" s="1">
         <v>15878.0</v>
@@ -4597,34 +4875,34 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1">
         <v>1390301.32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R4" s="1">
         <v>16545.0</v>
@@ -4635,28 +4913,28 @@
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="R5" s="1">
         <v>23913.0</v>
@@ -4667,28 +4945,28 @@
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R6" s="1">
         <v>32872.0</v>
@@ -4699,28 +4977,28 @@
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R7" s="1">
         <v>33357.0</v>
@@ -4731,25 +5009,25 @@
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R8" s="1">
         <v>40304.0</v>
@@ -4760,19 +5038,19 @@
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R9" s="1">
         <v>40438.0</v>
@@ -4783,19 +5061,19 @@
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R10" s="1">
         <v>40621.0</v>
@@ -4806,19 +5084,19 @@
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R11" s="1">
         <v>42587.0</v>
@@ -4829,19 +5107,19 @@
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R12" s="1">
         <v>43684.0</v>
@@ -4852,19 +5130,19 @@
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R13" s="1">
         <v>44410.44</v>
@@ -4875,19 +5153,19 @@
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R14" s="1">
         <v>46052.78</v>
@@ -4898,13 +5176,13 @@
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R15" s="1">
         <v>46276.0</v>
@@ -4915,13 +5193,13 @@
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R16" s="1">
         <v>46618.22</v>
@@ -4932,13 +5210,13 @@
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R17" s="1">
         <v>46747.0</v>
@@ -4949,13 +5227,13 @@
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R18" s="1">
         <v>48843.0</v>
@@ -4966,13 +5244,13 @@
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R19" s="1">
         <v>49336.0</v>
@@ -4983,13 +5261,13 @@
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R20" s="1">
         <v>49588.0</v>
@@ -5000,13 +5278,13 @@
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="R21" s="1">
         <v>49793.0</v>
@@ -5017,13 +5295,13 @@
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R22" s="1">
         <v>50042.0</v>
@@ -5034,13 +5312,13 @@
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R23" s="1">
         <v>50195.0</v>
@@ -5051,13 +5329,13 @@
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R24" s="1">
         <v>50400.0</v>
@@ -5068,13 +5346,13 @@
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R25" s="1">
         <v>50529.0</v>
@@ -5085,13 +5363,13 @@
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R26" s="1">
         <v>50696.0</v>
@@ -5102,13 +5380,13 @@
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R27" s="1">
         <v>50846.0</v>
@@ -5119,13 +5397,13 @@
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R28" s="1">
         <v>50938.0</v>
@@ -5136,13 +5414,13 @@
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R29" s="1">
         <v>51443.0</v>
@@ -5153,13 +5431,13 @@
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R30" s="1">
         <v>52149.0</v>
@@ -5170,13 +5448,13 @@
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R31" s="1">
         <v>52671.0</v>
@@ -5187,13 +5465,13 @@
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R32" s="1">
         <v>52731.0</v>
@@ -5204,13 +5482,13 @@
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R33" s="1">
         <v>52831.0</v>
@@ -5221,10 +5499,10 @@
     </row>
     <row r="34">
       <c r="P34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R34" s="1">
         <v>52939.0</v>
@@ -5235,10 +5513,10 @@
     </row>
     <row r="35">
       <c r="P35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R35" s="1">
         <v>53115.0</v>
@@ -5249,10 +5527,10 @@
     </row>
     <row r="36">
       <c r="P36" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R36" s="1">
         <v>53565.0</v>
@@ -5263,10 +5541,10 @@
     </row>
     <row r="37">
       <c r="P37" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R37" s="1">
         <v>56489.0</v>
@@ -5277,10 +5555,10 @@
     </row>
     <row r="38">
       <c r="P38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R38" s="1">
         <v>56570.0</v>
@@ -5291,10 +5569,10 @@
     </row>
     <row r="39">
       <c r="P39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R39" s="1">
         <v>56649.0</v>
@@ -5305,10 +5583,10 @@
     </row>
     <row r="40">
       <c r="P40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R40" s="1">
         <v>56944.0</v>
@@ -5319,10 +5597,10 @@
     </row>
     <row r="41">
       <c r="P41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R41" s="1">
         <v>57644.0</v>
@@ -5333,10 +5611,10 @@
     </row>
     <row r="42">
       <c r="P42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R42" s="1">
         <v>57763.73</v>
@@ -5347,10 +5625,10 @@
     </row>
     <row r="43">
       <c r="P43" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R43" s="1">
         <v>57962.0</v>
@@ -5361,10 +5639,10 @@
     </row>
     <row r="44">
       <c r="P44" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R44" s="1">
         <v>58081.0</v>
@@ -5375,10 +5653,10 @@
     </row>
     <row r="45">
       <c r="P45" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R45" s="1">
         <v>58177.0</v>
@@ -5389,10 +5667,10 @@
     </row>
     <row r="46">
       <c r="P46" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R46" s="1">
         <v>58455.0</v>
@@ -5403,10 +5681,10 @@
     </row>
     <row r="47">
       <c r="P47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R47" s="1">
         <v>58641.0</v>
@@ -5417,10 +5695,10 @@
     </row>
     <row r="48">
       <c r="P48" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R48" s="1">
         <v>59275.0</v>
@@ -5431,10 +5709,10 @@
     </row>
     <row r="49">
       <c r="P49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R49" s="1">
         <v>59348.0</v>
@@ -5445,10 +5723,10 @@
     </row>
     <row r="50">
       <c r="P50" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R50" s="1">
         <v>59440.0</v>
@@ -5459,10 +5737,10 @@
     </row>
     <row r="51">
       <c r="P51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R51" s="1">
         <v>59515.0</v>
@@ -5473,10 +5751,10 @@
     </row>
     <row r="52">
       <c r="P52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R52" s="1">
         <v>59594.0</v>
@@ -5487,10 +5765,10 @@
     </row>
     <row r="53">
       <c r="P53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R53" s="1">
         <v>59686.0</v>
@@ -5501,10 +5779,10 @@
     </row>
     <row r="54">
       <c r="P54" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R54" s="1">
         <v>59879.0</v>
@@ -5515,10 +5793,10 @@
     </row>
     <row r="55">
       <c r="P55" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R55" s="1">
         <v>61653.0</v>
@@ -5529,10 +5807,10 @@
     </row>
     <row r="56">
       <c r="P56" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R56" s="1">
         <v>61814.0</v>
@@ -5543,10 +5821,10 @@
     </row>
     <row r="57">
       <c r="P57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R57" s="1">
         <v>61893.0</v>
@@ -5557,10 +5835,10 @@
     </row>
     <row r="58">
       <c r="P58" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R58" s="1">
         <v>62338.0</v>
@@ -5571,10 +5849,10 @@
     </row>
     <row r="59">
       <c r="P59" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R59" s="1">
         <v>62582.0</v>
@@ -5585,10 +5863,10 @@
     </row>
     <row r="60">
       <c r="P60" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R60" s="1">
         <v>62626.0</v>
@@ -5599,10 +5877,10 @@
     </row>
     <row r="61">
       <c r="P61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R61" s="1">
         <v>62672.0</v>
@@ -5613,10 +5891,10 @@
     </row>
     <row r="62">
       <c r="P62" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R62" s="1">
         <v>62726.0</v>
@@ -5627,10 +5905,10 @@
     </row>
     <row r="63">
       <c r="P63" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R63" s="1">
         <v>62919.0</v>
@@ -5641,43 +5919,43 @@
     </row>
     <row r="64">
       <c r="P64" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65">
       <c r="P65" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="P66" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
       <c r="P67" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68">
       <c r="P68" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="P69" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="P70" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5750,16 +6028,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1">
         <v>170.95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E2" s="1">
         <v>170.95</v>
@@ -5885,13 +6163,15 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -5903,739 +6183,742 @@
         <v>30135.61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1">
         <v>285058.36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6702,51 +6985,55 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3">
         <v>29781.9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P2" s="4"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="1">
+        <v>300.0</v>
+      </c>
       <c r="R2" s="2"/>
     </row>
     <row r="3">
@@ -6760,23 +7047,23 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -6788,23 +7075,23 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="4"/>
     </row>
@@ -6815,23 +7102,23 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -6843,7 +7130,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -6852,10 +7139,10 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -6867,7 +7154,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -6876,10 +7163,10 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -6891,7 +7178,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -6900,10 +7187,10 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -6915,7 +7202,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -6924,10 +7211,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -6939,7 +7226,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6948,10 +7235,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -6963,7 +7250,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -6972,10 +7259,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -6988,7 +7275,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -6997,10 +7284,10 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -7013,7 +7300,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -7022,10 +7309,10 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -7037,7 +7324,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -7046,10 +7333,10 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="4"/>
     </row>
@@ -7060,7 +7347,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -7069,10 +7356,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q15" s="4"/>
     </row>
@@ -7083,7 +7370,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -7092,10 +7379,10 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -7107,7 +7394,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -7116,10 +7403,10 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -7131,7 +7418,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -7140,10 +7427,10 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -7155,7 +7442,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -7176,7 +7463,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -7197,7 +7484,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -7218,7 +7505,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -7239,7 +7526,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -7260,7 +7547,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -7281,7 +7568,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -7302,7 +7589,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -7323,7 +7610,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -7344,7 +7631,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -7365,7 +7652,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -7386,7 +7673,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -7407,7 +7694,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -7428,7 +7715,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -7449,7 +7736,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -7470,7 +7757,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -7491,7 +7778,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -7512,7 +7799,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -7533,7 +7820,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -7554,7 +7841,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -7575,7 +7862,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -7596,7 +7883,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -7617,7 +7904,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -7638,7 +7925,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -7659,7 +7946,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -7680,7 +7967,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -7701,7 +7988,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -7722,7 +8009,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -7743,7 +8030,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -7764,7 +8051,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -7785,7 +8072,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -7806,7 +8093,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -7827,7 +8114,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -7848,7 +8135,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -7869,7 +8156,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -7890,7 +8177,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -7911,7 +8198,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -7932,7 +8219,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -7953,7 +8240,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -7974,7 +8261,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -7995,7 +8282,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -8016,7 +8303,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -8037,7 +8324,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -8058,7 +8345,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -8079,7 +8366,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -8100,7 +8387,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -8252,396 +8539,401 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1">
         <v>23226.45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8708,410 +9000,415 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1">
         <v>8363.73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>300.0</v>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
       <c r="F16" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17">
       <c r="F17" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="F18" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="F20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="F21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="F23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="F24" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25">
       <c r="F25" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="F28" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="F29" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="F30" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31">
       <c r="F31" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32">
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="F33" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
       <c r="F48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
       <c r="F49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="F50" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
       <c r="F51" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/support/clinical_info/Stim info.xlsx
+++ b/support/clinical_info/Stim info.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="451">
   <si>
     <t>Ieeg name</t>
   </si>
@@ -2557,6 +2557,12 @@
       <c r="B2" s="1">
         <v>3.0</v>
       </c>
+      <c r="C2" s="1">
+        <v>31324.86</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>67</v>
       </c>
@@ -3100,6 +3106,12 @@
       <c r="A2" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="C2" s="1">
+        <v>33002.61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="Q2" s="1">
         <v>300.0</v>
       </c>
@@ -3627,6 +3639,12 @@
       <c r="B2" s="1">
         <v>3.0</v>
       </c>
+      <c r="C2" s="1">
+        <v>8292.76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4091,6 +4109,12 @@
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11838.74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>41</v>
